--- a/data_year/zb/科技/规模以上工业企业新产品开发及生产情况/按登记注册类型分规模以上工业企业新产品产值.xlsx
+++ b/data_year/zb/科技/规模以上工业企业新产品开发及生产情况/按登记注册类型分规模以上工业企业新产品产值.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,11 +553,11 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>79973698.59999999</v>
+        <v>736062822.4</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -585,306 +585,76 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>205625718</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>885826552.3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1409814.3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>153884486.7</v>
+      </c>
       <c r="E3" t="n">
-        <v>230417447</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>253823290</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>322619625</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>427637650</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>523942671.7</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>585227473</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>587144048.6</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="n">
-        <v>681988049</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>736062822.4</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>885826552.3</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1409814.3</v>
-      </c>
-      <c r="D10" t="n">
-        <v>153884486.7</v>
-      </c>
-      <c r="E10" t="n">
         <v>1008904580.5</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F3" t="n">
         <v>4225855.6</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G3" t="n">
         <v>661590500.3</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H3" t="n">
         <v>78091561.2</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I3" t="n">
         <v>49167119.3</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J3" t="n">
         <v>1094092.8</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K3" t="n">
         <v>248562255.4</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L3" t="n">
         <v>10826197.1</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M3" t="n">
         <v>82263726.90000001</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N3" t="n">
         <v>255339267.9</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O3" t="n">
         <v>510816.5</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P3" t="n">
         <v>43940934.8</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q3" t="n">
         <v>98746031.2</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R3" t="n">
         <v>7218947.8</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S3" t="n">
         <v>46354292.3</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T3" t="n">
         <v>141786991.9</v>
       </c>
-      <c r="U10" t="n">
+      <c r="U3" t="n">
         <v>1937405.3</v>
       </c>
-      <c r="V10" t="n">
+      <c r="V3" t="n">
         <v>2922990.9</v>
       </c>
-      <c r="W10" t="n">
+      <c r="W3" t="n">
         <v>169244030.4</v>
       </c>
-      <c r="X10" t="n">
+      <c r="X3" t="n">
         <v>8042397.1</v>
       </c>
     </row>
